--- a/data/clean_data/milk_df_inflation_adjusted.xlsx
+++ b/data/clean_data/milk_df_inflation_adjusted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,35 +466,130 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>vet_costs</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bedding_litter_costs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>marketing_costs</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>operating_costs</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>service_costs</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>utility_costs</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>repair_costs</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>total_operating_costs</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>overhead</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>total_costs</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>cows_per_farm</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>output_per_cow</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>cpi_index_x</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>milk_sold_real</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>gross_value_real</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>feed_costs_real</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>vet_costs_real</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>bedding_litter_costs_real</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>marketing_costs_real</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>service_costs_real</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>utility_costs_real</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>repair_costs_real</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>total_operating_costs_real</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>overhead_real</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>total_costs_real</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>cpi_index_y</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>cpi_index</t>
         </is>
@@ -522,24 +617,81 @@
         <v>10.11</v>
       </c>
       <c r="G2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.43</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" t="n">
         <v>14.3</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>16.31</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>30.61</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>59</v>
       </c>
-      <c r="L2" t="n">
+      <c r="Q2" t="n">
         <v>13058</v>
       </c>
-      <c r="M2" t="n">
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="T2" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -565,24 +717,81 @@
         <v>13.08</v>
       </c>
       <c r="G3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.24</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M3" t="n">
         <v>16.63</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
         <v>21.37</v>
       </c>
-      <c r="J3" t="n">
+      <c r="O3" t="n">
         <v>38</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
         <v>53</v>
       </c>
-      <c r="L3" t="n">
+      <c r="Q3" t="n">
         <v>10956</v>
       </c>
-      <c r="M3" t="n">
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="T3" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,24 +817,81 @@
         <v>13.23</v>
       </c>
       <c r="G4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.31</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M4" t="n">
         <v>17.1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
         <v>14.61</v>
       </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
         <v>31.71</v>
       </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
         <v>46</v>
       </c>
-      <c r="L4" t="n">
+      <c r="Q4" t="n">
         <v>12177</v>
       </c>
-      <c r="M4" t="n">
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="T4" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -651,24 +917,81 @@
         <v>13.61</v>
       </c>
       <c r="G5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.24</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M5" t="n">
         <v>17.62</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
         <v>18.88</v>
       </c>
-      <c r="J5" t="n">
+      <c r="O5" t="n">
         <v>36.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>62</v>
       </c>
-      <c r="L5" t="n">
+      <c r="Q5" t="n">
         <v>11982</v>
       </c>
-      <c r="M5" t="n">
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="T5" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -694,24 +1017,81 @@
         <v>13.47</v>
       </c>
       <c r="G6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.22</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M6" t="n">
         <v>17.11</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="n">
         <v>14.95</v>
       </c>
-      <c r="J6" t="n">
+      <c r="O6" t="n">
         <v>32.07</v>
       </c>
-      <c r="K6" t="n">
+      <c r="P6" t="n">
         <v>65</v>
       </c>
-      <c r="L6" t="n">
+      <c r="Q6" t="n">
         <v>13101</v>
       </c>
-      <c r="M6" t="n">
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="T6" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -737,24 +1117,81 @@
         <v>14.01</v>
       </c>
       <c r="G7" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.25</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M7" t="n">
         <v>17.89</v>
       </c>
-      <c r="I7" t="n">
+      <c r="N7" t="n">
         <v>21.99</v>
       </c>
-      <c r="J7" t="n">
+      <c r="O7" t="n">
         <v>39.88</v>
       </c>
-      <c r="K7" t="n">
+      <c r="P7" t="n">
         <v>36</v>
       </c>
-      <c r="L7" t="n">
+      <c r="Q7" t="n">
         <v>10542</v>
       </c>
-      <c r="M7" t="n">
+      <c r="R7" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="S7" t="n">
+        <v>23.03987608221035</v>
+      </c>
+      <c r="T7" t="n">
+        <v>25.45645426484981</v>
+      </c>
+      <c r="U7" t="n">
+        <v>12.82434103741625</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.4485315566262641</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.4302241461517228</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.2288426309317674</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.5492223142362418</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.098444628472484</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.5949908404225953</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>16.37597866947728</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>20.12899781675826</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>36.50497648623554</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="AF7" t="n">
         <v>1.092453792294238</v>
       </c>
     </row>
@@ -780,24 +1217,81 @@
         <v>11.58</v>
       </c>
       <c r="G8" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.39</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M8" t="n">
         <v>16.39</v>
       </c>
-      <c r="I8" t="n">
+      <c r="N8" t="n">
         <v>18.1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="O8" t="n">
         <v>34.48999999999999</v>
       </c>
-      <c r="K8" t="n">
+      <c r="P8" t="n">
         <v>73</v>
       </c>
-      <c r="L8" t="n">
+      <c r="Q8" t="n">
         <v>12880</v>
       </c>
-      <c r="M8" t="n">
+      <c r="R8" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="S8" t="n">
+        <v>22.23435002133052</v>
+      </c>
+      <c r="T8" t="n">
+        <v>24.91638565585084</v>
+      </c>
+      <c r="U8" t="n">
+        <v>10.59999066475947</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.5675297247107832</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.4759926723380763</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.3569945042535572</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.6224519561344075</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.135059449421566</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.089290923235213</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>15.00292288388667</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>16.56820647945996</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>31.57112936334662</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="AF8" t="n">
         <v>1.092453792294238</v>
       </c>
     </row>
@@ -823,24 +1317,81 @@
         <v>14.05</v>
       </c>
       <c r="G9" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.23</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M9" t="n">
         <v>18.81</v>
       </c>
-      <c r="I9" t="n">
+      <c r="N9" t="n">
         <v>20.52</v>
       </c>
-      <c r="J9" t="n">
+      <c r="O9" t="n">
         <v>39.33</v>
       </c>
-      <c r="K9" t="n">
+      <c r="P9" t="n">
         <v>72</v>
       </c>
-      <c r="L9" t="n">
+      <c r="Q9" t="n">
         <v>12247</v>
       </c>
-      <c r="M9" t="n">
+      <c r="R9" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="S9" t="n">
+        <v>25.96906175813697</v>
+      </c>
+      <c r="T9" t="n">
+        <v>28.303256593641</v>
+      </c>
+      <c r="U9" t="n">
+        <v>12.86095585836533</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.4668389671008056</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.4027630304399107</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.2105352204572261</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.3753019147280986</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.31813355416698</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.418824311776958</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>17.21811955130618</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>18.78340314687947</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>36.00152269818565</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="AF9" t="n">
         <v>1.092453792294238</v>
       </c>
     </row>
@@ -866,24 +1417,81 @@
         <v>15.88</v>
       </c>
       <c r="G10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.23</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M10" t="n">
         <v>21.05</v>
       </c>
-      <c r="I10" t="n">
+      <c r="N10" t="n">
         <v>22.45</v>
       </c>
-      <c r="J10" t="n">
+      <c r="O10" t="n">
         <v>43.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="P10" t="n">
         <v>60</v>
       </c>
-      <c r="L10" t="n">
+      <c r="Q10" t="n">
         <v>12145</v>
       </c>
-      <c r="M10" t="n">
+      <c r="R10" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="S10" t="n">
+        <v>23.772172501192</v>
+      </c>
+      <c r="T10" t="n">
+        <v>26.18875068383146</v>
+      </c>
+      <c r="U10" t="n">
+        <v>14.53608391678587</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.5217611985244297</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4576852618635349</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.2105352204572261</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4119167356771814</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.208289091319732</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.794126226505057</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>19.26854952445482</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>20.55006825767272</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>39.81861778212753</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="AF10" t="n">
         <v>1.092453792294238</v>
       </c>
     </row>
@@ -909,24 +1517,81 @@
         <v>14.75</v>
       </c>
       <c r="G11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.19</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M11" t="n">
         <v>19.85</v>
       </c>
-      <c r="I11" t="n">
+      <c r="N11" t="n">
         <v>21.15</v>
       </c>
-      <c r="J11" t="n">
+      <c r="O11" t="n">
         <v>41</v>
       </c>
-      <c r="K11" t="n">
+      <c r="P11" t="n">
         <v>56</v>
       </c>
-      <c r="L11" t="n">
+      <c r="Q11" t="n">
         <v>12940</v>
       </c>
-      <c r="M11" t="n">
+      <c r="R11" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="S11" t="n">
+        <v>25.53883761198524</v>
+      </c>
+      <c r="T11" t="n">
+        <v>28.27579547792919</v>
+      </c>
+      <c r="U11" t="n">
+        <v>13.50171522497428</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.7322964189816559</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5309149037617004</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.1739203995081433</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.8512945870661749</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.9977538708625061</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.189981680845191</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>18.17010489598233</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>19.36008657682752</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>37.53019147280986</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="AF11" t="n">
         <v>1.092453792294238</v>
       </c>
     </row>
@@ -952,24 +1617,81 @@
         <v>12.93</v>
       </c>
       <c r="G12" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.2</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M12" t="n">
         <v>18.56</v>
       </c>
-      <c r="I12" t="n">
+      <c r="N12" t="n">
         <v>16.47</v>
       </c>
-      <c r="J12" t="n">
+      <c r="O12" t="n">
         <v>35.03</v>
       </c>
-      <c r="K12" t="n">
+      <c r="P12" t="n">
         <v>89</v>
       </c>
-      <c r="L12" t="n">
+      <c r="Q12" t="n">
         <v>13376</v>
       </c>
-      <c r="M12" t="n">
+      <c r="R12" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="S12" t="n">
+        <v>29.26608197656761</v>
+      </c>
+      <c r="T12" t="n">
+        <v>31.87627741525775</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10.85203441230339</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.4616101258133692</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.3441093665154207</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.1678582275684979</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.7133974671661161</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.082685567816811</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.787690123604502</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>15.5772435183566</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13.8231250402658</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>29.40036855862241</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="AF12" t="n">
         <v>1.191481662216325</v>
       </c>
     </row>
@@ -995,24 +1717,81 @@
         <v>23.65</v>
       </c>
       <c r="G13" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.1</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M13" t="n">
         <v>28.56000000000001</v>
       </c>
-      <c r="I13" t="n">
+      <c r="N13" t="n">
         <v>18.06</v>
       </c>
-      <c r="J13" t="n">
+      <c r="O13" t="n">
         <v>46.62</v>
       </c>
-      <c r="K13" t="n">
+      <c r="P13" t="n">
         <v>62</v>
       </c>
-      <c r="L13" t="n">
+      <c r="Q13" t="n">
         <v>12223</v>
       </c>
-      <c r="M13" t="n">
+      <c r="R13" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="S13" t="n">
+        <v>31.96859944042043</v>
+      </c>
+      <c r="T13" t="n">
+        <v>34.25147133535199</v>
+      </c>
+      <c r="U13" t="n">
+        <v>19.84923540997487</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.5371463282191933</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.4028597461643949</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.08392911378424894</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.4364313916780945</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.9064344288698887</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.510724048116481</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23.97015489678151</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15.15759794943536</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>39.12775284621686</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="AF13" t="n">
         <v>1.191481662216325</v>
       </c>
     </row>
@@ -1038,24 +1817,81 @@
         <v>13.12</v>
       </c>
       <c r="G14" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.22</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M14" t="n">
         <v>17.51</v>
       </c>
-      <c r="I14" t="n">
+      <c r="N14" t="n">
         <v>20.35</v>
       </c>
-      <c r="J14" t="n">
+      <c r="O14" t="n">
         <v>37.86</v>
       </c>
-      <c r="K14" t="n">
+      <c r="P14" t="n">
         <v>37</v>
       </c>
-      <c r="L14" t="n">
+      <c r="Q14" t="n">
         <v>13178</v>
       </c>
-      <c r="M14" t="n">
+      <c r="R14" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="S14" t="n">
+        <v>25.37177109697846</v>
+      </c>
+      <c r="T14" t="n">
+        <v>27.16785413196138</v>
+      </c>
+      <c r="U14" t="n">
+        <v>11.01149972849346</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.4951817713270688</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.3692881006506953</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.1846440503253477</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.5875037964897426</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.6630399988955668</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.175007592979485</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>14.69598782362199</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>17.07957465509466</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>31.77556247871665</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="AF14" t="n">
         <v>1.191481662216325</v>
       </c>
     </row>
@@ -1081,24 +1917,81 @@
         <v>15.91</v>
       </c>
       <c r="G15" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.25</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M15" t="n">
         <v>20</v>
       </c>
-      <c r="I15" t="n">
+      <c r="N15" t="n">
         <v>17.58</v>
       </c>
-      <c r="J15" t="n">
+      <c r="O15" t="n">
         <v>37.58</v>
       </c>
-      <c r="K15" t="n">
+      <c r="P15" t="n">
         <v>49</v>
       </c>
-      <c r="L15" t="n">
+      <c r="Q15" t="n">
         <v>14543</v>
       </c>
-      <c r="M15" t="n">
+      <c r="R15" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="S15" t="n">
+        <v>27.59589261226106</v>
+      </c>
+      <c r="T15" t="n">
+        <v>29.76126374789468</v>
+      </c>
+      <c r="U15" t="n">
+        <v>13.35312200307401</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.4700030371917941</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.2098227844606224</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.2098227844606224</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.5539321509760431</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.6042896192465924</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1.141435947465786</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>16.78582275684979</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>14.75473820327096</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>31.54056096012075</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="AF15" t="n">
         <v>1.191481662216325</v>
       </c>
     </row>
@@ -1124,24 +2017,81 @@
         <v>15.52</v>
       </c>
       <c r="G16" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.37</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M16" t="n">
         <v>22.64</v>
       </c>
-      <c r="I16" t="n">
+      <c r="N16" t="n">
         <v>18.17</v>
       </c>
-      <c r="J16" t="n">
+      <c r="O16" t="n">
         <v>40.81</v>
       </c>
-      <c r="K16" t="n">
+      <c r="P16" t="n">
         <v>63</v>
       </c>
-      <c r="L16" t="n">
+      <c r="Q16" t="n">
         <v>14211</v>
       </c>
-      <c r="M16" t="n">
+      <c r="R16" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="S16" t="n">
+        <v>30.81877058157621</v>
+      </c>
+      <c r="T16" t="n">
+        <v>32.37985209796324</v>
+      </c>
+      <c r="U16" t="n">
+        <v>13.02579845931544</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4783959485702189</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.6546470875171418</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.3105377210017211</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.6294683533818671</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.208579238493185</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.534659236284318</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>19.00155136075396</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15.24991997459803</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>34.25147133535199</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="AF16" t="n">
         <v>1.191481662216325</v>
       </c>
     </row>
@@ -1167,24 +2117,81 @@
         <v>8.159999999999998</v>
       </c>
       <c r="G17" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.28</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M17" t="n">
         <v>10.24</v>
       </c>
-      <c r="I17" t="n">
+      <c r="N17" t="n">
         <v>3.88</v>
       </c>
-      <c r="J17" t="n">
+      <c r="O17" t="n">
         <v>14.12</v>
       </c>
-      <c r="K17" t="n">
+      <c r="P17" t="n">
         <v>988</v>
       </c>
-      <c r="L17" t="n">
+      <c r="Q17" t="n">
         <v>19987</v>
       </c>
-      <c r="M17" t="n">
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="T17" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="U17" t="n">
+        <v>8.159999999999998</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,24 +2217,81 @@
         <v>9.06</v>
       </c>
       <c r="G18" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.18</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M18" t="n">
         <v>12.42</v>
       </c>
-      <c r="I18" t="n">
+      <c r="N18" t="n">
         <v>6.42</v>
       </c>
-      <c r="J18" t="n">
+      <c r="O18" t="n">
         <v>18.84</v>
       </c>
-      <c r="K18" t="n">
+      <c r="P18" t="n">
         <v>1013</v>
       </c>
-      <c r="L18" t="n">
+      <c r="Q18" t="n">
         <v>17572</v>
       </c>
-      <c r="M18" t="n">
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>18</v>
+      </c>
+      <c r="T18" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="U18" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,24 +2317,81 @@
         <v>7.590000000000001</v>
       </c>
       <c r="G19" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.7</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M19" t="n">
         <v>11.06</v>
       </c>
-      <c r="I19" t="n">
+      <c r="N19" t="n">
         <v>7.419999999999999</v>
       </c>
-      <c r="J19" t="n">
+      <c r="O19" t="n">
         <v>18.48</v>
       </c>
-      <c r="K19" t="n">
+      <c r="P19" t="n">
         <v>273</v>
       </c>
-      <c r="L19" t="n">
+      <c r="Q19" t="n">
         <v>17294</v>
       </c>
-      <c r="M19" t="n">
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="T19" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="U19" t="n">
+        <v>7.590000000000001</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.419999999999999</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1296,24 +2417,81 @@
         <v>8.91</v>
       </c>
       <c r="G20" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.25</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M20" t="n">
         <v>11.93</v>
       </c>
-      <c r="I20" t="n">
+      <c r="N20" t="n">
         <v>9.010000000000002</v>
       </c>
-      <c r="J20" t="n">
+      <c r="O20" t="n">
         <v>20.94</v>
       </c>
-      <c r="K20" t="n">
+      <c r="P20" t="n">
         <v>133</v>
       </c>
-      <c r="L20" t="n">
+      <c r="Q20" t="n">
         <v>17949</v>
       </c>
-      <c r="M20" t="n">
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="T20" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="U20" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.010000000000002</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,24 +2517,81 @@
         <v>7.579999999999999</v>
       </c>
       <c r="G21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.29</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M21" t="n">
         <v>11.23</v>
       </c>
-      <c r="I21" t="n">
+      <c r="N21" t="n">
         <v>9.57</v>
       </c>
-      <c r="J21" t="n">
+      <c r="O21" t="n">
         <v>20.8</v>
       </c>
-      <c r="K21" t="n">
+      <c r="P21" t="n">
         <v>127</v>
       </c>
-      <c r="L21" t="n">
+      <c r="Q21" t="n">
         <v>18389</v>
       </c>
-      <c r="M21" t="n">
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="T21" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7.579999999999999</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1382,24 +2617,81 @@
         <v>9.210000000000001</v>
       </c>
       <c r="G22" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I22" t="n">
         <v>0.28</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M22" t="n">
         <v>11.46</v>
       </c>
-      <c r="I22" t="n">
+      <c r="N22" t="n">
         <v>4.56</v>
       </c>
-      <c r="J22" t="n">
+      <c r="O22" t="n">
         <v>16.02</v>
       </c>
-      <c r="K22" t="n">
+      <c r="P22" t="n">
         <v>999</v>
       </c>
-      <c r="L22" t="n">
+      <c r="Q22" t="n">
         <v>22569</v>
       </c>
-      <c r="M22" t="n">
+      <c r="R22" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="S22" t="n">
+        <v>13.00741514216166</v>
+      </c>
+      <c r="T22" t="n">
+        <v>14.6825432005822</v>
+      </c>
+      <c r="U22" t="n">
+        <v>8.430562523526312</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.5217611985244297</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.07322964189816558</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2563037466435796</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.39360932520264</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.4668389671008056</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.3386870937790158</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10.49014620191222</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>4.174089588195438</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>14.66423579010766</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="AF22" t="n">
         <v>1.092453792294238</v>
       </c>
     </row>
@@ -1425,24 +2717,81 @@
         <v>11.69</v>
       </c>
       <c r="G23" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.15</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M23" t="n">
         <v>14.25</v>
       </c>
-      <c r="I23" t="n">
+      <c r="N23" t="n">
         <v>8.200000000000001</v>
       </c>
-      <c r="J23" t="n">
+      <c r="O23" t="n">
         <v>22.45</v>
       </c>
-      <c r="K23" t="n">
+      <c r="P23" t="n">
         <v>905</v>
       </c>
-      <c r="L23" t="n">
+      <c r="Q23" t="n">
         <v>18071</v>
       </c>
-      <c r="M23" t="n">
+      <c r="R23" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="S23" t="n">
+        <v>18.74678832593039</v>
+      </c>
+      <c r="T23" t="n">
+        <v>20.82467941479084</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10.70068142236945</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.5217611985244297</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.009153705237270698</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.1373055785590604</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.4393778513889934</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.7414501242189265</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.485146377575347</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13.04402996311074</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.506038294561973</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>20.55006825767272</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="AF23" t="n">
         <v>1.092453792294238</v>
       </c>
     </row>
@@ -1468,24 +2817,81 @@
         <v>9.789999999999999</v>
       </c>
       <c r="G24" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I24" t="n">
         <v>0.2</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M24" t="n">
         <v>12.65</v>
       </c>
-      <c r="I24" t="n">
+      <c r="N24" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="J24" t="n">
+      <c r="O24" t="n">
         <v>22.52</v>
       </c>
-      <c r="K24" t="n">
+      <c r="P24" t="n">
         <v>188</v>
       </c>
-      <c r="L24" t="n">
+      <c r="Q24" t="n">
         <v>15518</v>
       </c>
-      <c r="M24" t="n">
+      <c r="R24" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="S24" t="n">
+        <v>16.9618158046626</v>
+      </c>
+      <c r="T24" t="n">
+        <v>18.6186364526086</v>
+      </c>
+      <c r="U24" t="n">
+        <v>8.961477427288012</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.5400686089989711</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.0183074104745414</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.183074104745414</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.6316056613716781</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.7506038294561972</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.485146377575347</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>11.57943712514743</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.034707069186178</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>20.61414419433361</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="AF24" t="n">
         <v>1.092453792294238</v>
       </c>
     </row>
@@ -1511,24 +2917,81 @@
         <v>8.130000000000001</v>
       </c>
       <c r="G25" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.26</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M25" t="n">
         <v>10.14</v>
       </c>
-      <c r="I25" t="n">
+      <c r="N25" t="n">
         <v>3.36</v>
       </c>
-      <c r="J25" t="n">
+      <c r="O25" t="n">
         <v>13.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="P25" t="n">
         <v>1110</v>
       </c>
-      <c r="L25" t="n">
+      <c r="Q25" t="n">
         <v>22085</v>
       </c>
-      <c r="M25" t="n">
+      <c r="R25" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="S25" t="n">
+        <v>13.57494486687244</v>
+      </c>
+      <c r="T25" t="n">
+        <v>15.01207658912394</v>
+      </c>
+      <c r="U25" t="n">
+        <v>7.441962357901078</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.4943000828126177</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.2105352204572261</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.2379963361690381</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.2379963361690381</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3661482094908279</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.2837648623553916</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.281857110592489</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>3.075644959722954</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>12.35750207031544</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="AF25" t="n">
         <v>1.092453792294238</v>
       </c>
     </row>
@@ -1554,24 +3017,81 @@
         <v>10.64</v>
       </c>
       <c r="G26" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I26" t="n">
         <v>0.18</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
         <v>14.76</v>
       </c>
-      <c r="I26" t="n">
+      <c r="N26" t="n">
         <v>13.1</v>
       </c>
-      <c r="J26" t="n">
+      <c r="O26" t="n">
         <v>27.86</v>
       </c>
-      <c r="K26" t="n">
+      <c r="P26" t="n">
         <v>80</v>
       </c>
-      <c r="L26" t="n">
+      <c r="Q26" t="n">
         <v>18082</v>
       </c>
-      <c r="M26" t="n">
+      <c r="R26" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="S26" t="n">
+        <v>14.70085061105674</v>
+      </c>
+      <c r="T26" t="n">
+        <v>16.78789540515446</v>
+      </c>
+      <c r="U26" t="n">
+        <v>9.739542372456022</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.8787557027779869</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.2929185675926623</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1647666942708725</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.6224519561344075</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.8787557027779869</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.9245242289643404</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13.51086893021155</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11.99135386082461</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>25.50222279103616</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.092453792294238</v>
+      </c>
+      <c r="AF26" t="n">
         <v>1.092453792294238</v>
       </c>
     </row>
@@ -1597,24 +3117,81 @@
         <v>8.859999999999999</v>
       </c>
       <c r="G27" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I27" t="n">
         <v>0.24</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M27" t="n">
         <v>11.22</v>
       </c>
-      <c r="I27" t="n">
+      <c r="N27" t="n">
         <v>5.659999999999999</v>
       </c>
-      <c r="J27" t="n">
+      <c r="O27" t="n">
         <v>16.88</v>
       </c>
-      <c r="K27" t="n">
+      <c r="P27" t="n">
         <v>1746</v>
       </c>
-      <c r="L27" t="n">
+      <c r="Q27" t="n">
         <v>21703</v>
       </c>
-      <c r="M27" t="n">
+      <c r="R27" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="S27" t="n">
+        <v>12.78240402934111</v>
+      </c>
+      <c r="T27" t="n">
+        <v>14.61205870983774</v>
+      </c>
+      <c r="U27" t="n">
+        <v>7.436119481284456</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.5791108851113177</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.03357164551369958</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.2014298730821975</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.5539321509760431</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.2350015185958971</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.3525022778938456</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9.416846566592731</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>4.750387840188489</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>14.16723440678122</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="AF27" t="n">
         <v>1.191481662216325</v>
       </c>
     </row>
@@ -1640,24 +3217,81 @@
         <v>11.28</v>
       </c>
       <c r="G28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I28" t="n">
         <v>0.14</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M28" t="n">
         <v>15.85</v>
       </c>
-      <c r="I28" t="n">
+      <c r="N28" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="J28" t="n">
+      <c r="O28" t="n">
         <v>25.32</v>
       </c>
-      <c r="K28" t="n">
+      <c r="P28" t="n">
         <v>177</v>
       </c>
-      <c r="L28" t="n">
+      <c r="Q28" t="n">
         <v>20068</v>
       </c>
-      <c r="M28" t="n">
+      <c r="R28" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="S28" t="n">
+        <v>14.17562731815965</v>
+      </c>
+      <c r="T28" t="n">
+        <v>17.15511085750049</v>
+      </c>
+      <c r="U28" t="n">
+        <v>9.467204034863281</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.124650124708936</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.159465316190073</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.1175007592979485</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.881255694734614</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.6042896192465924</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.9148273402483136</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>13.30276453480346</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.948087075368376</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>21.25085161017183</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="AF28" t="n">
         <v>1.191481662216325</v>
       </c>
     </row>
@@ -1683,24 +3317,81 @@
         <v>9.970000000000001</v>
       </c>
       <c r="G29" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.12</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M29" t="n">
         <v>13.47</v>
       </c>
-      <c r="I29" t="n">
+      <c r="N29" t="n">
         <v>8.85</v>
       </c>
-      <c r="J29" t="n">
+      <c r="O29" t="n">
         <v>22.32</v>
       </c>
-      <c r="K29" t="n">
+      <c r="P29" t="n">
         <v>144</v>
       </c>
-      <c r="L29" t="n">
+      <c r="Q29" t="n">
         <v>20920</v>
       </c>
-      <c r="M29" t="n">
+      <c r="R29" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="S29" t="n">
+        <v>13.20204959826236</v>
+      </c>
+      <c r="T29" t="n">
+        <v>15.10724048116481</v>
+      </c>
+      <c r="U29" t="n">
+        <v>8.367732644289621</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.6210754420034422</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.2433944299743219</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.1007149365410987</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.6294683533818671</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.5875037964897426</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.7301832899229658</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>11.30525162673833</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.427726569906032</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>18.73297819664436</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="AF29" t="n">
         <v>1.191481662216325</v>
       </c>
     </row>
@@ -1726,24 +3417,81 @@
         <v>8.619999999999999</v>
       </c>
       <c r="G30" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I30" t="n">
         <v>0.13</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M30" t="n">
         <v>11.82</v>
       </c>
-      <c r="I30" t="n">
+      <c r="N30" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="J30" t="n">
+      <c r="O30" t="n">
         <v>20.12</v>
       </c>
-      <c r="K30" t="n">
+      <c r="P30" t="n">
         <v>246</v>
       </c>
-      <c r="L30" t="n">
+      <c r="Q30" t="n">
         <v>23086</v>
       </c>
-      <c r="M30" t="n">
+      <c r="R30" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="S30" t="n">
+        <v>13.63008807856203</v>
+      </c>
+      <c r="T30" t="n">
+        <v>15.23313415184118</v>
+      </c>
+      <c r="U30" t="n">
+        <v>7.234689608202259</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.7217903785445409</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.2517873413527468</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.1091078479195236</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.5203605054623435</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.4951817713270688</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.562325062354468</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9.920421249298226</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>6.966116444092664</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>16.88653769339089</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="AF30" t="n">
         <v>1.191481662216325</v>
       </c>
     </row>
@@ -1769,24 +3517,81 @@
         <v>9.589999999999998</v>
       </c>
       <c r="G31" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I31" t="n">
         <v>0.18</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="M31" t="n">
         <v>12.77</v>
       </c>
-      <c r="I31" t="n">
+      <c r="N31" t="n">
         <v>7.989999999999999</v>
       </c>
-      <c r="J31" t="n">
+      <c r="O31" t="n">
         <v>20.75999999999999</v>
       </c>
-      <c r="K31" t="n">
+      <c r="P31" t="n">
         <v>139</v>
       </c>
-      <c r="L31" t="n">
+      <c r="Q31" t="n">
         <v>19561</v>
       </c>
-      <c r="M31" t="n">
+      <c r="R31" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="S31" t="n">
+        <v>14.10009111575382</v>
+      </c>
+      <c r="T31" t="n">
+        <v>15.79545921419565</v>
+      </c>
+      <c r="U31" t="n">
+        <v>8.048802011909473</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.5119675940839186</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.2350015185958971</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.1510724048116481</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.78893366957194</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.5455392395976182</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.4112526575428198</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>10.71774783024859</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>6.705936191361491</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>17.42368402161007</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.191481662216325</v>
+      </c>
+      <c r="AF31" t="n">
         <v>1.191481662216325</v>
       </c>
     </row>
